--- a/3.xlsx
+++ b/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\再次测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D0D88-32E3-4FB9-8FE3-F978ED9D2AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F03F7-488B-4B57-8CC0-670F43FFEDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,15 +344,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -381,292 +377,352 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>17010689471</v>
+        <v>16235754290</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>17010680441</v>
+        <v>17010689471</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16756810563</v>
+        <v>16232613005</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>17012657818</v>
+        <v>17010680441</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>17144429513</v>
+        <v>17028308772</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>16536737490</v>
+        <v>16756810563</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>16217857657</v>
+        <v>17012657818</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16217857824</v>
+        <v>17016290792</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>17017918791</v>
+        <v>17144429513</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>16255697828</v>
+        <v>17027364183</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>15959233741</v>
+        <v>16536737490</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16232600060</v>
+        <v>17010685530</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17144991631</v>
+        <v>16217857657</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16571132755</v>
+        <v>17027363914</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17144425507</v>
+        <v>16217857824</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17027368294</v>
+        <v>17147203201</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16571189939</v>
+        <v>17017918791</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>15594840746</v>
+        <v>16255697828</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>16270586098</v>
+        <v>16232615631</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>17026087482</v>
+        <v>15959233741</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>16270589690</v>
+        <v>16756203952</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>17084940161</v>
+        <v>16232600060</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>16571715278</v>
+        <v>16217857813</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>17068214006</v>
+        <v>17144991631</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>17144423731</v>
+        <v>17012655575</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>16756810682</v>
+        <v>16571132755</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>17012655661</v>
+        <v>17144425507</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>17144316811</v>
+        <v>17028308816</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>16217857378</v>
+        <v>17147200472</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>16536613365</v>
+        <v>17144313829</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>17019410718</v>
+        <v>16571189475</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>17028308851</v>
+        <v>16235754290</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>16239801457</v>
+        <v>17010689471</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>16217857421</v>
+        <v>16232613005</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>18931630847</v>
+        <v>17010680441</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>17027364197</v>
+        <v>17028308772</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16230877854</v>
+        <v>16756810563</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>17026087369</v>
+        <v>17012657818</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>16218383085</v>
+        <v>17016290792</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>16239802640</v>
+        <v>17144429513</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17027366649</v>
+        <v>17027364183</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>17027361289</v>
+        <v>16536737490</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>17147203457</v>
+        <v>17010685530</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>16571182031</v>
+        <v>16217857657</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16218383127</v>
+        <v>17027363914</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>16235751462</v>
+        <v>16217857824</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>18596466064</v>
+        <v>17147203201</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>16537632957</v>
+        <v>17017918791</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>18659404694</v>
+        <v>16255697828</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>13178219610</v>
+        <v>16232615631</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>13105080195</v>
+        <v>15959233741</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>18279927165</v>
+        <v>16756203952</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>17758732580</v>
+        <v>16232600060</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>13003616717</v>
+        <v>16217857813</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>15659353990</v>
+        <v>17144991631</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>13055982947</v>
+        <v>17012655575</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>13333492469</v>
+        <v>16571132755</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
+        <v>17144425507</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>18596466064</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>18659404694</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>13178219610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>13105080195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>18279927165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>17758732580</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>13003616717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>15659353990</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>13055982947</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>13333492469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>19941665992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>16537632957</v>
       </c>
     </row>
   </sheetData>

--- a/3.xlsx
+++ b/3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\再次测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F03F7-488B-4B57-8CC0-670F43FFEDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E83A1-6806-4ACE-A641-4033A7562F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,8 +346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,157 +512,157 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>17028308816</v>
+        <v>17027368294</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>17147200472</v>
+        <v>16571189939</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>17144313829</v>
+        <v>15594840746</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>16571189475</v>
+        <v>16270586098</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>16235754290</v>
+        <v>17026087482</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>17010689471</v>
+        <v>16270589690</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>16232613005</v>
+        <v>17084940161</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>17010680441</v>
+        <v>16571715278</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>17028308772</v>
+        <v>17068214006</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16756810563</v>
+        <v>17144423731</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>17012657818</v>
+        <v>16756810682</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>17016290792</v>
+        <v>17012655661</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>17144429513</v>
+        <v>17144316811</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17027364183</v>
+        <v>16217857378</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>16536737490</v>
+        <v>16536613365</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>17010685530</v>
+        <v>17019410718</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>16217857657</v>
+        <v>17028308851</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>17027363914</v>
+        <v>16239801457</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>16217857824</v>
+        <v>16217857421</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>17147203201</v>
+        <v>18931630847</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17017918791</v>
+        <v>17027364197</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>16255697828</v>
+        <v>16230877854</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>16232615631</v>
+        <v>17026087369</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>15959233741</v>
+        <v>16218383085</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>16756203952</v>
+        <v>16239802640</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>16232600060</v>
+        <v>17027366649</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>16217857813</v>
+        <v>17027361289</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>17144991631</v>
+        <v>17147203457</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>17012655575</v>
+        <v>16571182031</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>16571132755</v>
+        <v>16218383127</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>17144425507</v>
+        <v>16235751462</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
